--- a/Results/Excel/charactrized_results.xlsx
+++ b/Results/Excel/charactrized_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmadu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{56E2C986-709C-4138-95EB-687FE9CAA9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEC8D3F8-A5AB-4DF8-99DD-0B0D692352B1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3092E6CD-08A2-4B94-B481-E0E7B71844B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NDC_typical_endpoint" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,34 +601,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -746,7 +746,7 @@
         <v>156.35188813659951</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -805,7 +805,7 @@
         <v>53.614941836416861</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -864,7 +864,7 @@
         <v>7.1176215168021104E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -923,7 +923,7 @@
         <v>2.4788496391670869E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -982,7 +982,7 @@
         <v>6.0106137263296349</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>39531.603723794913</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>29.025955279442051</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>0.29250694647102959</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>1.3203983965963471E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>4.4735180963032542E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>4.4587572710469848E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>5.0481855715023478E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>2.6309274284497958E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>3.8837215536082767E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>36.764671490347887</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>123.6393431501606</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>35.646648374879391</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>3.869537591520587</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>0.9297915602760074</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>1.333027794254119E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>3.3901947112345332E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>5.546237985680456E-8</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>38.576516122931281</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>1.9122243344235641E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>1.096190377010586E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>1.1224901037683031E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -2293,30 +2293,30 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>303.10319907206832</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>99.024883735749</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>1.380865256359415E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>4.578061781007652E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>12.316105032464289</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>80524.108867719799</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>54.30194954058959</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>0.89292036798724161</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>2.6506526536477061E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>1.2873850604314899E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>8.8206713917236119E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>9.6920279936762088E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>8.3677729541868763E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>1.322910573354121E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>81.434546423059999</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>347.8277263330242</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>66.7098447357521</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>7.2415293919022794</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>1.999703049783611</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>2.2762586844223911E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>7.0722764682422628E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>1.23175032853877E-7</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>79.567753185279344</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>6.0189947897442376E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>3.2857387990496527E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>3.1242870266039451E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -3981,25 +3981,25 @@
       <selection sqref="A1:N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>280.21794331007538</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>92.02028432316844</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>1.276194221153178E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>4.2530387097275857E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>6.1703766784504444</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>39587.011987244128</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>29.91243548101453</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>0.29296343061362867</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>1.3438951807731751E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>4.4187046724940949E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>4.4877833209234071E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>5.0980483501085667E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>3.255031566739809E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>4.3640970508897704E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>32.339199786867631</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>116.0827746407288</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>65.484368307424333</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>7.109529432953539</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>0.89977296982451138</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>1.4282095399724349E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>3.4424055637869068E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>6.2487143327819894E-8</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>39.369399289115393</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>3.644278339061668E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>2.8985707490321921E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>1.200399549142084E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -5244,25 +5244,25 @@
       <selection sqref="A1:N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>685.07814592806153</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>218.3943103114207</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>3.118539972278565E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>1.009430811441045E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>12.47475914551816</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>79924.110428703236</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>59.014313976109868</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>0.87368482777877976</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>2.7400200777131119E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>1.2643622948162259E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>8.8297121128075762E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>9.7068219595266517E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>1.0744554761184331E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>1.5254919498424531E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>66.701783978082332</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>321.59856549184059</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>159.28065771951259</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>17.291248170700658</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>1.8855197385658089</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>2.690714915607587E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>6.9465553763135162E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>1.428621906000099E-7</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>80.166977609050889</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>1.2059113344758799E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>9.8563428598577474E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>3.3846161147623728E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -6503,34 +6503,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -6565,7 +6565,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
@@ -6589,7 +6589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>271.12268483695129</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>302.88611756797633</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>6757.9518719842727</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>7.2070363502353521E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>69260758.597452715</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>2.5658504422115661E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>1.3235102779237041E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>4.6654322515764419E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>18493.91249054153</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>52.472492558208508</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>0.48872426005783343</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>7.4383324925919536E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>56.012365878182123</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>5.2668754005847198E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>0.28267409621641443</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>1.442394912613814</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>5.9054796220630156E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -7660,34 +7660,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -7722,7 +7722,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
@@ -7746,7 +7746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>514.95931726897538</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>558.62674656667639</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>17366.48346844803</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>1.479046480976229E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>141483039.8927803</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>7.8326349525165026E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>3.5228196192300509E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>9.3656552374261708E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>62995.742710838647</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>116.227711429661</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>1.377139701828771</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>0.15997624507719371</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>61.927996103076318</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>9.3414791055183852E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>0.58971435550832219</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>3.1817261865353301</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>1.2205293046287849E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -8821,25 +8821,25 @@
       <selection sqref="A1:N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>472.79477088804578</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>519.5629091992439</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>10180.62461522233</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>7.3954311636802996E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>69361255.163020283</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>2.5698546896147E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>1.3404993865123461E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>4.7033474798776611E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>20781.414901087828</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>46.156224213976529</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>0.45883589869515617</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>7.1981838299612758E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>55.98256406880688</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>5.8072752055993038E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>0.28695455346999821</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>1.634609331352155</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>6.0229534087669397E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -9688,25 +9688,25 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>1145.329794918043</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>1233.6357357630141</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>28629.631089740989</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>1.499949204249809E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>140381289.07420731</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>7.6639021788316206E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>3.5386457272520489E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>9.4922517587823997E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>72642.475100789379</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>95.200330142584164</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>1.271388551730515</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>0.15084158004615381</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>61.511765540208891</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>1.136673332995665E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>0.57959766616334207</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>3.711043196968479</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>1.2255410817844601E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -10548,26 +10548,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="3e967a12-6289-42ca-b82d-6fdfb36083b1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d9e37eb4-c6bb-4629-be18-95901fa69551">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CAD3BD7DA0AC04185699C2E4E7ED281" ma:contentTypeVersion="16" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="8dfeb2d13d490bb0631e18522dcfe2be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d9e37eb4-c6bb-4629-be18-95901fa69551" xmlns:ns3="3e967a12-6289-42ca-b82d-6fdfb36083b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59ab00f3fe4784bbf98a5730a4f0f30c" ns2:_="" ns3:_="">
     <xsd:import namespace="d9e37eb4-c6bb-4629-be18-95901fa69551"/>
@@ -10810,14 +10790,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3e967a12-6289-42ca-b82d-6fdfb36083b1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d9e37eb4-c6bb-4629-be18-95901fa69551">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8FF2451-7FD8-41E8-BF98-0DC5CEFBAB76}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16BDCBB2-5CA9-43BE-B56C-5AD668539B67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d9e37eb4-c6bb-4629-be18-95901fa69551"/>
+    <ds:schemaRef ds:uri="3e967a12-6289-42ca-b82d-6fdfb36083b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B257B05-16F7-473D-BDE9-9A0878B2D2D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B257B05-16F7-473D-BDE9-9A0878B2D2D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e967a12-6289-42ca-b82d-6fdfb36083b1"/>
+    <ds:schemaRef ds:uri="d9e37eb4-c6bb-4629-be18-95901fa69551"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16BDCBB2-5CA9-43BE-B56C-5AD668539B67}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8FF2451-7FD8-41E8-BF98-0DC5CEFBAB76}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Results/Excel/charactrized_results.xlsx
+++ b/Results/Excel/charactrized_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmadu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3092E6CD-08A2-4B94-B481-E0E7B71844B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF94EA1-5934-415B-B765-2492E5FB5751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NDC_typical_endpoint" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,7 +618,7 @@
     <col min="9" max="9" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.1796875" bestFit="1" customWidth="1"/>
@@ -654,7 +654,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -663,7 +663,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
@@ -2289,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2306,7 +2306,7 @@
     <col min="9" max="9" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.1796875" bestFit="1" customWidth="1"/>
@@ -2342,7 +2342,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -2351,7 +2351,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
@@ -7660,7 +7660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -10548,6 +10548,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3e967a12-6289-42ca-b82d-6fdfb36083b1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d9e37eb4-c6bb-4629-be18-95901fa69551">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CAD3BD7DA0AC04185699C2E4E7ED281" ma:contentTypeVersion="16" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="8dfeb2d13d490bb0631e18522dcfe2be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d9e37eb4-c6bb-4629-be18-95901fa69551" xmlns:ns3="3e967a12-6289-42ca-b82d-6fdfb36083b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59ab00f3fe4784bbf98a5730a4f0f30c" ns2:_="" ns3:_="">
     <xsd:import namespace="d9e37eb4-c6bb-4629-be18-95901fa69551"/>
@@ -10790,27 +10810,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="3e967a12-6289-42ca-b82d-6fdfb36083b1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d9e37eb4-c6bb-4629-be18-95901fa69551">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8FF2451-7FD8-41E8-BF98-0DC5CEFBAB76}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B257B05-16F7-473D-BDE9-9A0878B2D2D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e967a12-6289-42ca-b82d-6fdfb36083b1"/>
+    <ds:schemaRef ds:uri="d9e37eb4-c6bb-4629-be18-95901fa69551"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16BDCBB2-5CA9-43BE-B56C-5AD668539B67}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10827,23 +10846,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B257B05-16F7-473D-BDE9-9A0878B2D2D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3e967a12-6289-42ca-b82d-6fdfb36083b1"/>
-    <ds:schemaRef ds:uri="d9e37eb4-c6bb-4629-be18-95901fa69551"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8FF2451-7FD8-41E8-BF98-0DC5CEFBAB76}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>